--- a/kvision/ksample/mytable/result/001_8e68c.xlsx
+++ b/kvision/ksample/mytable/result/001_8e68c.xlsx
@@ -35,13 +35,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -50,11 +64,15 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -438,271 +456,280 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>品名</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>入库</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>出库</t>
         </is>
       </c>
+      <c r="F1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="C2" s="1" t="inlineStr">
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr"/>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>日期数量</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>钢管</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>米</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>2011-02-27</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>510. 00</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr"/>
-      <c r="F3" s="1" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>钢管</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>米</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>2011-03-05</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>82.00</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr"/>
-      <c r="F4" s="1" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>钢管</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>米</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>2011-03-15</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>1087.50</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr"/>
-      <c r="F5" s="1" t="inlineStr"/>
+      <c r="E5" s="2" t="inlineStr"/>
+      <c r="F5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>钢管</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>米</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>2011-03-19</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>486. 00</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr"/>
-      <c r="F6" s="1" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>钢管小计</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>2165.50</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>扣件</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>2011-02-27</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>450.00</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>扣件</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>2011-03-05</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1" t="inlineStr"/>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>扣件</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>2011-03-15</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>820. 00</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr"/>
-      <c r="F10" s="1" t="inlineStr"/>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>扣件小计</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr"/>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>1290. 00</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr"/>
-      <c r="F11" s="1" t="inlineStr"/>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>本期租金合计（元）</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>498.3</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr"/>
-      <c r="F12" s="1" t="inlineStr"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>应收金额合计（元）</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>597.71</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr"/>
-      <c r="F13" s="1" t="inlineStr"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/kvision/ksample/mytable/result/001_8e68c.xlsx
+++ b/kvision/ksample/mytable/result/001_8e68c.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -57,6 +57,86 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -64,7 +144,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -73,6 +153,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -456,280 +540,280 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>品名</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>入库</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>出库</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="F1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="A2" s="5" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr"/>
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>日期数量</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>钢管</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>米</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>2011-02-27</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>510. 00</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>钢管</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>米</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>2011-03-05</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>82.00</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>钢管</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>米</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>2011-03-15</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>1087.50</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
+      <c r="E5" s="4" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>钢管</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>米</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>2011-03-19</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>486. 00</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>钢管小计</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>2165.50</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>扣件</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>2011-02-27</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>450.00</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>扣件</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>2011-03-05</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr"/>
+      <c r="F9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>扣件</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>2011-03-15</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>820. 00</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>扣件小计</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>1290. 00</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr"/>
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>本期租金合计（元）</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr"/>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr"/>
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>498.3</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>应收金额合计（元）</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>597.71</t>
         </is>
       </c>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/kvision/ksample/mytable/result/001_8e68c.xlsx
+++ b/kvision/ksample/mytable/result/001_8e68c.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -135,6 +135,86 @@
       </top>
       <bottom style="thick">
         <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
       </bottom>
     </border>
   </borders>
@@ -144,7 +224,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -157,6 +237,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -540,280 +624,280 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>品名</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>入库</t>
         </is>
       </c>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="D1" s="7" t="n"/>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>出库</t>
         </is>
       </c>
-      <c r="F1" s="5" t="n"/>
+      <c r="F1" s="7" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>日期</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr"/>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr"/>
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>日期数量</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>钢管</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>米</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>2011-02-27</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>510. 00</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr"/>
-      <c r="F3" s="4" t="inlineStr"/>
+      <c r="E3" s="6" t="inlineStr"/>
+      <c r="F3" s="6" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>钢管</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>米</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>2011-03-05</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>82.00</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr"/>
-      <c r="F4" s="4" t="inlineStr"/>
+      <c r="E4" s="6" t="inlineStr"/>
+      <c r="F4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>钢管</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>米</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>2011-03-15</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>1087.50</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>钢管</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>米</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>2011-03-19</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>486. 00</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>钢管小计</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="6" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>2165.50</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
+      <c r="E7" s="6" t="inlineStr"/>
+      <c r="F7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>扣件</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>2011-02-27</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>450.00</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr"/>
+      <c r="E8" s="6" t="inlineStr"/>
+      <c r="F8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>扣件</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>2011-03-05</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>20.00</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
+      <c r="F9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>扣件</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>2011-03-15</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>820. 00</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr"/>
+      <c r="E10" s="6" t="inlineStr"/>
+      <c r="F10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>扣件小计</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="6" t="inlineStr"/>
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>1290. 00</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
+      <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>本期租金合计（元）</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr"/>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr"/>
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>498.3</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="4" t="inlineStr"/>
-      <c r="F12" s="4" t="inlineStr"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>应收金额合计（元）</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>597.71</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="4" t="inlineStr"/>
-      <c r="F13" s="4" t="inlineStr"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="6" t="inlineStr"/>
+      <c r="F13" s="6" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">
